--- a/status.xlsx
+++ b/status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\eLead Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\Mercedes Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C310D-C6F3-4D19-91A2-EBED4DA1DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2AEEBC-2ADC-49EA-A0AA-8981B51FD186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,7 +361,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/status.xlsx
+++ b/status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock\Desktop\Mercedes Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2AEEBC-2ADC-49EA-A0AA-8981B51FD186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E8FAAD-0C8F-4DDB-8929-36D149DF9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
